--- a/hasil/2023_01_penyerahan_ac.xlsx
+++ b/hasil/2023_01_penyerahan_ac.xlsx
@@ -802,7 +802,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 17 Oktober 2023</t>
+    <t>Ternate , 11 Pebruari 2024</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
